--- a/plots/countries/plot data/Australia.xlsx
+++ b/plots/countries/plot data/Australia.xlsx
@@ -505,7 +505,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>91.1592260785781</v>
+        <v>94.2426132366595</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="n">
-        <v>40.3114652390008</v>
+        <v>40.4588061776577</v>
       </c>
     </row>
     <row r="5">
@@ -605,7 +605,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="n">
-        <v>61.3695869447552</v>
+        <v>61.1757990795648</v>
       </c>
     </row>
     <row r="8">
@@ -625,7 +625,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>25.1132129320407</v>
+        <v>25.1133164924063</v>
       </c>
     </row>
     <row r="9">
@@ -645,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>178.267237339137</v>
+        <v>180.701745474365</v>
       </c>
     </row>
     <row r="10">
@@ -665,7 +665,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>23.4622423698785</v>
+        <v>23.4622585722767</v>
       </c>
     </row>
     <row r="11">
@@ -685,7 +685,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="n">
-        <v>90.438276011869</v>
+        <v>93.6442276502273</v>
       </c>
     </row>
     <row r="12">
@@ -725,7 +725,7 @@
         <v>17</v>
       </c>
       <c r="F13" t="n">
-        <v>39.6601405346472</v>
+        <v>39.785607369996</v>
       </c>
     </row>
     <row r="14">
@@ -785,7 +785,7 @@
         <v>17</v>
       </c>
       <c r="F16" t="n">
-        <v>60.8015338596974</v>
+        <v>60.6078427397886</v>
       </c>
     </row>
     <row r="17">
@@ -805,7 +805,7 @@
         <v>17</v>
       </c>
       <c r="F17" t="n">
-        <v>24.3104258377126</v>
+        <v>24.3075475921783</v>
       </c>
     </row>
     <row r="18">
@@ -825,7 +825,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>157.770159083373</v>
+        <v>161.219079994648</v>
       </c>
     </row>
     <row r="19">
@@ -845,7 +845,7 @@
         <v>17</v>
       </c>
       <c r="F19" t="n">
-        <v>23.3825140127599</v>
+        <v>23.3825304839254</v>
       </c>
     </row>
     <row r="20">
@@ -865,7 +865,7 @@
         <v>17</v>
       </c>
       <c r="F20" t="n">
-        <v>87.6000229576147</v>
+        <v>90.7735976886566</v>
       </c>
     </row>
     <row r="21">
@@ -905,7 +905,7 @@
         <v>17</v>
       </c>
       <c r="F22" t="n">
-        <v>41.6017802921689</v>
+        <v>41.7439462607227</v>
       </c>
     </row>
     <row r="23">
@@ -925,7 +925,7 @@
         <v>17</v>
       </c>
       <c r="F23" t="n">
-        <v>35.3159189135466</v>
+        <v>35.3159189135465</v>
       </c>
     </row>
     <row r="24">
@@ -965,7 +965,7 @@
         <v>17</v>
       </c>
       <c r="F25" t="n">
-        <v>61.8101291964569</v>
+        <v>61.6226710257067</v>
       </c>
     </row>
     <row r="26">
@@ -985,7 +985,7 @@
         <v>17</v>
       </c>
       <c r="F26" t="n">
-        <v>24.8889730883539</v>
+        <v>24.882912969209</v>
       </c>
     </row>
     <row r="27">
@@ -1005,7 +1005,7 @@
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>113.479067808067</v>
+        <v>118.304990417926</v>
       </c>
     </row>
     <row r="28">
@@ -1025,7 +1025,7 @@
         <v>17</v>
       </c>
       <c r="F28" t="n">
-        <v>23.1162298927087</v>
+        <v>23.1162466012128</v>
       </c>
     </row>
     <row r="29">
@@ -1045,7 +1045,7 @@
         <v>17</v>
       </c>
       <c r="F29" t="n">
-        <v>85.143779776073</v>
+        <v>88.2940294196879</v>
       </c>
     </row>
     <row r="30">
@@ -1085,7 +1085,7 @@
         <v>17</v>
       </c>
       <c r="F31" t="n">
-        <v>40.4252933891354</v>
+        <v>40.5433342556153</v>
       </c>
     </row>
     <row r="32">
@@ -1145,7 +1145,7 @@
         <v>17</v>
       </c>
       <c r="F34" t="n">
-        <v>63.3825686552803</v>
+        <v>63.1982017674716</v>
       </c>
     </row>
     <row r="35">
@@ -1165,7 +1165,7 @@
         <v>17</v>
       </c>
       <c r="F35" t="n">
-        <v>24.6351492398597</v>
+        <v>24.6257619698877</v>
       </c>
     </row>
     <row r="36">
@@ -1185,7 +1185,7 @@
         <v>17</v>
       </c>
       <c r="F36" t="n">
-        <v>92.15809191923</v>
+        <v>96.9554299577626</v>
       </c>
     </row>
     <row r="37">
@@ -1205,7 +1205,7 @@
         <v>17</v>
       </c>
       <c r="F37" t="n">
-        <v>22.9345771650049</v>
+        <v>22.9345941125673</v>
       </c>
     </row>
     <row r="38">
@@ -1225,7 +1225,7 @@
         <v>17</v>
       </c>
       <c r="F38" t="n">
-        <v>85.0229358847973</v>
+        <v>88.1766032148282</v>
       </c>
     </row>
     <row r="39">
@@ -1265,7 +1265,7 @@
         <v>17</v>
       </c>
       <c r="F40" t="n">
-        <v>38.2542301877359</v>
+        <v>38.351437417462</v>
       </c>
     </row>
     <row r="41">
@@ -1325,7 +1325,7 @@
         <v>17</v>
       </c>
       <c r="F43" t="n">
-        <v>64.8741434530385</v>
+        <v>64.6952368220694</v>
       </c>
     </row>
     <row r="44">
@@ -1345,7 +1345,7 @@
         <v>17</v>
       </c>
       <c r="F44" t="n">
-        <v>24.8867768096995</v>
+        <v>24.8738381515932</v>
       </c>
     </row>
     <row r="45">
@@ -1365,7 +1365,7 @@
         <v>17</v>
       </c>
       <c r="F45" t="n">
-        <v>81.7859457377922</v>
+        <v>86.1122185957785</v>
       </c>
     </row>
     <row r="46">
@@ -1405,7 +1405,7 @@
         <v>17</v>
       </c>
       <c r="F47" t="n">
-        <v>81.4908397668436</v>
+        <v>84.6745144564981</v>
       </c>
     </row>
     <row r="48">
@@ -1445,7 +1445,7 @@
         <v>17</v>
       </c>
       <c r="F49" t="n">
-        <v>39.930226348544</v>
+        <v>40.0239401565233</v>
       </c>
     </row>
     <row r="50">
@@ -1505,7 +1505,7 @@
         <v>17</v>
       </c>
       <c r="F52" t="n">
-        <v>68.2158991076371</v>
+        <v>68.0425621039158</v>
       </c>
     </row>
     <row r="53">
@@ -1525,7 +1525,7 @@
         <v>17</v>
       </c>
       <c r="F53" t="n">
-        <v>24.6544234765914</v>
+        <v>24.6373445935251</v>
       </c>
     </row>
     <row r="54">
@@ -1545,7 +1545,7 @@
         <v>17</v>
       </c>
       <c r="F54" t="n">
-        <v>60.6966522588549</v>
+        <v>64.8811252403277</v>
       </c>
     </row>
     <row r="55">
@@ -1565,7 +1565,7 @@
         <v>17</v>
       </c>
       <c r="F55" t="n">
-        <v>22.0909062895765</v>
+        <v>22.0909236927931</v>
       </c>
     </row>
     <row r="56">
@@ -1585,7 +1585,7 @@
         <v>17</v>
       </c>
       <c r="F56" t="n">
-        <v>83.3695080740695</v>
+        <v>86.6524130092082</v>
       </c>
     </row>
     <row r="57">
@@ -1625,7 +1625,7 @@
         <v>17</v>
       </c>
       <c r="F58" t="n">
-        <v>39.478410537896</v>
+        <v>39.5215747685896</v>
       </c>
     </row>
     <row r="59">
@@ -1685,7 +1685,7 @@
         <v>17</v>
       </c>
       <c r="F61" t="n">
-        <v>70.0906565221533</v>
+        <v>69.9170632176841</v>
       </c>
     </row>
     <row r="62">
@@ -1705,7 +1705,7 @@
         <v>17</v>
       </c>
       <c r="F62" t="n">
-        <v>24.3428330100787</v>
+        <v>24.3429345138348</v>
       </c>
     </row>
     <row r="63">
@@ -1725,7 +1725,7 @@
         <v>17</v>
       </c>
       <c r="F63" t="n">
-        <v>55.7320672399836</v>
+        <v>60.4416390030602</v>
       </c>
     </row>
     <row r="64">
@@ -1745,7 +1745,7 @@
         <v>17</v>
       </c>
       <c r="F64" t="n">
-        <v>20.2224387826582</v>
+        <v>20.222456466272</v>
       </c>
     </row>
     <row r="65">
@@ -1765,7 +1765,7 @@
         <v>17</v>
       </c>
       <c r="F65" t="n">
-        <v>84.3818816431721</v>
+        <v>87.729630290206</v>
       </c>
     </row>
     <row r="66">
@@ -1805,7 +1805,7 @@
         <v>17</v>
       </c>
       <c r="F67" t="n">
-        <v>42.4892243714197</v>
+        <v>42.4665553573495</v>
       </c>
     </row>
     <row r="68">
@@ -1865,7 +1865,7 @@
         <v>17</v>
       </c>
       <c r="F70" t="n">
-        <v>71.3883265846473</v>
+        <v>71.2134282873249</v>
       </c>
     </row>
     <row r="71">
@@ -1885,7 +1885,7 @@
         <v>17</v>
       </c>
       <c r="F71" t="n">
-        <v>24.4156927237317</v>
+        <v>24.4150986629544</v>
       </c>
     </row>
     <row r="72">
@@ -1905,7 +1905,7 @@
         <v>17</v>
       </c>
       <c r="F72" t="n">
-        <v>41.8157465600179</v>
+        <v>46.9039184881883</v>
       </c>
     </row>
     <row r="73">
@@ -1925,7 +1925,7 @@
         <v>17</v>
       </c>
       <c r="F73" t="n">
-        <v>19.9120089233576</v>
+        <v>19.9120268492528</v>
       </c>
     </row>
     <row r="74">
@@ -1945,7 +1945,7 @@
         <v>17</v>
       </c>
       <c r="F74" t="n">
-        <v>84.3742126987976</v>
+        <v>87.7268383361413</v>
       </c>
     </row>
     <row r="75">
@@ -1985,7 +1985,7 @@
         <v>17</v>
       </c>
       <c r="F76" t="n">
-        <v>43.7335590724044</v>
+        <v>43.6665972519002</v>
       </c>
     </row>
     <row r="77">
@@ -2045,7 +2045,7 @@
         <v>17</v>
       </c>
       <c r="F79" t="n">
-        <v>71.5975476248454</v>
+        <v>71.4225084731157</v>
       </c>
     </row>
     <row r="80">
@@ -2065,7 +2065,7 @@
         <v>17</v>
       </c>
       <c r="F80" t="n">
-        <v>25.4686974144586</v>
+        <v>25.4675024648175</v>
       </c>
     </row>
     <row r="81">
@@ -2085,7 +2085,7 @@
         <v>17</v>
       </c>
       <c r="F81" t="n">
-        <v>44.9749105655973</v>
+        <v>50.7427608474168</v>
       </c>
     </row>
     <row r="82">
@@ -2105,7 +2105,7 @@
         <v>17</v>
       </c>
       <c r="F82" t="n">
-        <v>19.0870953802048</v>
+        <v>19.0871135140031</v>
       </c>
     </row>
     <row r="83">
@@ -2125,7 +2125,7 @@
         <v>17</v>
       </c>
       <c r="F83" t="n">
-        <v>84.3023409842135</v>
+        <v>87.5511341651546</v>
       </c>
     </row>
     <row r="84">
@@ -2165,7 +2165,7 @@
         <v>17</v>
       </c>
       <c r="F85" t="n">
-        <v>40.55257986624</v>
+        <v>40.5788588536755</v>
       </c>
     </row>
     <row r="86">
@@ -2185,7 +2185,7 @@
         <v>17</v>
       </c>
       <c r="F86" t="n">
-        <v>38.1086590694512</v>
+        <v>38.1086590694511</v>
       </c>
     </row>
     <row r="87">
@@ -2225,7 +2225,7 @@
         <v>17</v>
       </c>
       <c r="F88" t="n">
-        <v>72.4306143318082</v>
+        <v>72.2553579326065</v>
       </c>
     </row>
     <row r="89">
@@ -2245,7 +2245,7 @@
         <v>17</v>
       </c>
       <c r="F89" t="n">
-        <v>25.9148486029625</v>
+        <v>25.9131213303363</v>
       </c>
     </row>
     <row r="90">
@@ -2265,7 +2265,7 @@
         <v>17</v>
       </c>
       <c r="F90" t="n">
-        <v>59.4712864207319</v>
+        <v>65.5071491042129</v>
       </c>
     </row>
     <row r="91">
@@ -2285,7 +2285,7 @@
         <v>17</v>
       </c>
       <c r="F91" t="n">
-        <v>19.2113909514931</v>
+        <v>19.2114091809876</v>
       </c>
     </row>
     <row r="92">
@@ -2305,7 +2305,7 @@
         <v>17</v>
       </c>
       <c r="F92" t="n">
-        <v>87.5989807367736</v>
+        <v>91.0030096736886</v>
       </c>
     </row>
     <row r="93">
@@ -2345,7 +2345,7 @@
         <v>17</v>
       </c>
       <c r="F94" t="n">
-        <v>44.0119766894989</v>
+        <v>43.9604742880399</v>
       </c>
     </row>
     <row r="95">
@@ -2405,7 +2405,7 @@
         <v>17</v>
       </c>
       <c r="F97" t="n">
-        <v>74.0264735972043</v>
+        <v>73.8514997727108</v>
       </c>
     </row>
     <row r="98">
@@ -2425,7 +2425,7 @@
         <v>17</v>
       </c>
       <c r="F98" t="n">
-        <v>25.7666122526889</v>
+        <v>25.7618265859641</v>
       </c>
     </row>
     <row r="99">
@@ -2445,7 +2445,7 @@
         <v>17</v>
       </c>
       <c r="F99" t="n">
-        <v>69.3736727842901</v>
+        <v>75.5432502968902</v>
       </c>
     </row>
     <row r="100">
@@ -2465,7 +2465,7 @@
         <v>17</v>
       </c>
       <c r="F100" t="n">
-        <v>18.5689959951749</v>
+        <v>18.5690143443225</v>
       </c>
     </row>
     <row r="101">
@@ -2485,7 +2485,7 @@
         <v>17</v>
       </c>
       <c r="F101" t="n">
-        <v>86.6064730222302</v>
+        <v>89.9152161078579</v>
       </c>
     </row>
     <row r="102">
@@ -2525,7 +2525,7 @@
         <v>17</v>
       </c>
       <c r="F103" t="n">
-        <v>44.0047920137235</v>
+        <v>43.927118549123</v>
       </c>
     </row>
     <row r="104">
@@ -2585,7 +2585,7 @@
         <v>17</v>
       </c>
       <c r="F106" t="n">
-        <v>73.9746473981049</v>
+        <v>73.8079242784165</v>
       </c>
     </row>
     <row r="107">
@@ -2605,7 +2605,7 @@
         <v>17</v>
       </c>
       <c r="F107" t="n">
-        <v>26.5989815887611</v>
+        <v>26.5929430457758</v>
       </c>
     </row>
     <row r="108">
@@ -2625,7 +2625,7 @@
         <v>17</v>
       </c>
       <c r="F108" t="n">
-        <v>78.0687191554306</v>
+        <v>83.1042002044937</v>
       </c>
     </row>
     <row r="109">
@@ -2645,7 +2645,7 @@
         <v>17</v>
       </c>
       <c r="F109" t="n">
-        <v>18.8715419003061</v>
+        <v>18.8715603855891</v>
       </c>
     </row>
     <row r="110">
@@ -2665,7 +2665,7 @@
         <v>17</v>
       </c>
       <c r="F110" t="n">
-        <v>86.3164498383867</v>
+        <v>89.6778220144652</v>
       </c>
     </row>
     <row r="111">
@@ -2705,7 +2705,7 @@
         <v>17</v>
       </c>
       <c r="F112" t="n">
-        <v>42.7162377988319</v>
+        <v>42.6065931094592</v>
       </c>
     </row>
     <row r="113">
@@ -2765,7 +2765,7 @@
         <v>17</v>
       </c>
       <c r="F115" t="n">
-        <v>75.4864330757681</v>
+        <v>75.3113396645941</v>
       </c>
     </row>
     <row r="116">
@@ -2785,7 +2785,7 @@
         <v>17</v>
       </c>
       <c r="F116" t="n">
-        <v>27.0598476892806</v>
+        <v>27.0525151703379</v>
       </c>
     </row>
     <row r="117">
@@ -2805,7 +2805,7 @@
         <v>17</v>
       </c>
       <c r="F117" t="n">
-        <v>78.9556886146745</v>
+        <v>83.7587024548778</v>
       </c>
     </row>
     <row r="118">
@@ -2825,7 +2825,7 @@
         <v>17</v>
       </c>
       <c r="F118" t="n">
-        <v>18.9245375830552</v>
+        <v>18.9245562431103</v>
       </c>
     </row>
     <row r="119">
@@ -2845,7 +2845,7 @@
         <v>17</v>
       </c>
       <c r="F119" t="n">
-        <v>81.077147088865</v>
+        <v>84.2202452570491</v>
       </c>
     </row>
     <row r="120">
@@ -2885,7 +2885,7 @@
         <v>17</v>
       </c>
       <c r="F121" t="n">
-        <v>40.9681319692767</v>
+        <v>40.8567631771085</v>
       </c>
     </row>
     <row r="122">
@@ -2905,7 +2905,7 @@
         <v>17</v>
       </c>
       <c r="F122" t="n">
-        <v>39.5884038530247</v>
+        <v>40.8466288775971</v>
       </c>
     </row>
     <row r="123">
@@ -2945,7 +2945,7 @@
         <v>17</v>
       </c>
       <c r="F124" t="n">
-        <v>77.8686329126588</v>
+        <v>77.6856529006045</v>
       </c>
     </row>
     <row r="125">
@@ -2965,7 +2965,7 @@
         <v>17</v>
       </c>
       <c r="F125" t="n">
-        <v>29.5311203317344</v>
+        <v>29.5224132363197</v>
       </c>
     </row>
     <row r="126">
@@ -2985,7 +2985,7 @@
         <v>17</v>
       </c>
       <c r="F126" t="n">
-        <v>79.2731713770506</v>
+        <v>82.7528282584318</v>
       </c>
     </row>
     <row r="127">
@@ -3005,7 +3005,7 @@
         <v>17</v>
       </c>
       <c r="F127" t="n">
-        <v>16.3082405778355</v>
+        <v>16.3082596236912</v>
       </c>
     </row>
     <row r="128">
@@ -3025,7 +3025,7 @@
         <v>17</v>
       </c>
       <c r="F128" t="n">
-        <v>84.1389676189598</v>
+        <v>87.4613047194297</v>
       </c>
     </row>
     <row r="129">
@@ -3065,7 +3065,7 @@
         <v>17</v>
       </c>
       <c r="F130" t="n">
-        <v>40.8045663080915</v>
+        <v>40.7638857436055</v>
       </c>
     </row>
     <row r="131">
@@ -3085,7 +3085,7 @@
         <v>17</v>
       </c>
       <c r="F131" t="n">
-        <v>40.4675810839329</v>
+        <v>40.7758767990825</v>
       </c>
     </row>
     <row r="132">
@@ -3105,7 +3105,7 @@
         <v>17</v>
       </c>
       <c r="F132" t="n">
-        <v>214.502987435413</v>
+        <v>213.120437317882</v>
       </c>
     </row>
     <row r="133">
@@ -3125,7 +3125,7 @@
         <v>17</v>
       </c>
       <c r="F133" t="n">
-        <v>80.9767273853455</v>
+        <v>80.7739489881179</v>
       </c>
     </row>
     <row r="134">
@@ -3145,7 +3145,7 @@
         <v>17</v>
       </c>
       <c r="F134" t="n">
-        <v>30.8310653746234</v>
+        <v>30.8210999630891</v>
       </c>
     </row>
     <row r="135">
@@ -3165,7 +3165,7 @@
         <v>17</v>
       </c>
       <c r="F135" t="n">
-        <v>46.7246570091841</v>
+        <v>49.7001815020532</v>
       </c>
     </row>
     <row r="136">
@@ -3185,7 +3185,7 @@
         <v>17</v>
       </c>
       <c r="F136" t="n">
-        <v>15.8677686038726</v>
+        <v>15.8677875105688</v>
       </c>
     </row>
     <row r="137">
@@ -3205,7 +3205,7 @@
         <v>17</v>
       </c>
       <c r="F137" t="n">
-        <v>84.9150049349173</v>
+        <v>86.6885803963631</v>
       </c>
     </row>
     <row r="138">
@@ -3245,7 +3245,7 @@
         <v>17</v>
       </c>
       <c r="F139" t="n">
-        <v>42.79141054489</v>
+        <v>42.7752956631062</v>
       </c>
     </row>
     <row r="140">
@@ -3265,7 +3265,7 @@
         <v>17</v>
       </c>
       <c r="F140" t="n">
-        <v>41.5467871393987</v>
+        <v>41.6653409704915</v>
       </c>
     </row>
     <row r="141">
@@ -3285,7 +3285,7 @@
         <v>17</v>
       </c>
       <c r="F141" t="n">
-        <v>216.52807021715</v>
+        <v>215.385669105648</v>
       </c>
     </row>
     <row r="142">
@@ -3305,7 +3305,7 @@
         <v>17</v>
       </c>
       <c r="F142" t="n">
-        <v>82.0151974380438</v>
+        <v>81.8038888858336</v>
       </c>
     </row>
     <row r="143">
@@ -3325,7 +3325,7 @@
         <v>17</v>
       </c>
       <c r="F143" t="n">
-        <v>30.1302723555629</v>
+        <v>30.1251936679482</v>
       </c>
     </row>
     <row r="144">
@@ -3345,7 +3345,7 @@
         <v>17</v>
       </c>
       <c r="F144" t="n">
-        <v>74.9690056706474</v>
+        <v>76.9372257470762</v>
       </c>
     </row>
     <row r="145">
@@ -3365,7 +3365,7 @@
         <v>17</v>
       </c>
       <c r="F145" t="n">
-        <v>15.7140108395933</v>
+        <v>15.7140300494527</v>
       </c>
     </row>
     <row r="146">
@@ -3385,7 +3385,7 @@
         <v>17</v>
       </c>
       <c r="F146" t="n">
-        <v>83.0602786265049</v>
+        <v>85.5945752126098</v>
       </c>
     </row>
     <row r="147">
@@ -3425,7 +3425,7 @@
         <v>17</v>
       </c>
       <c r="F148" t="n">
-        <v>43.6430533710248</v>
+        <v>43.6759468764012</v>
       </c>
     </row>
     <row r="149">
@@ -3445,7 +3445,7 @@
         <v>17</v>
       </c>
       <c r="F149" t="n">
-        <v>40.6105918797224</v>
+        <v>40.6190645244291</v>
       </c>
     </row>
     <row r="150">
@@ -3465,7 +3465,7 @@
         <v>17</v>
       </c>
       <c r="F150" t="n">
-        <v>221.026740605052</v>
+        <v>220.092888401893</v>
       </c>
     </row>
     <row r="151">
@@ -3485,7 +3485,7 @@
         <v>17</v>
       </c>
       <c r="F151" t="n">
-        <v>83.2661847041081</v>
+        <v>83.0543384837693</v>
       </c>
     </row>
     <row r="152">
@@ -3505,7 +3505,7 @@
         <v>17</v>
       </c>
       <c r="F152" t="n">
-        <v>30.6159332770174</v>
+        <v>30.6104212486663</v>
       </c>
     </row>
     <row r="153">
@@ -3525,7 +3525,7 @@
         <v>17</v>
       </c>
       <c r="F153" t="n">
-        <v>106.226229279477</v>
+        <v>108.310582941868</v>
       </c>
     </row>
     <row r="154">
@@ -3545,7 +3545,7 @@
         <v>17</v>
       </c>
       <c r="F154" t="n">
-        <v>15.4599703109001</v>
+        <v>15.459989703036</v>
       </c>
     </row>
     <row r="155">
@@ -3565,7 +3565,7 @@
         <v>17</v>
       </c>
       <c r="F155" t="n">
-        <v>79.5463032537916</v>
+        <v>82.1081480250202</v>
       </c>
     </row>
     <row r="156">
@@ -3605,7 +3605,7 @@
         <v>17</v>
       </c>
       <c r="F157" t="n">
-        <v>46.7709009154056</v>
+        <v>46.8023754323613</v>
       </c>
     </row>
     <row r="158">
@@ -3625,7 +3625,7 @@
         <v>17</v>
       </c>
       <c r="F158" t="n">
-        <v>40.8884837606856</v>
+        <v>40.3827416732805</v>
       </c>
     </row>
     <row r="159">
@@ -3665,7 +3665,7 @@
         <v>17</v>
       </c>
       <c r="F160" t="n">
-        <v>85.1298152642831</v>
+        <v>84.9137596509437</v>
       </c>
     </row>
     <row r="161">
@@ -3685,7 +3685,7 @@
         <v>17</v>
       </c>
       <c r="F161" t="n">
-        <v>32.6594068213764</v>
+        <v>32.6534950789878</v>
       </c>
     </row>
     <row r="162">
@@ -3705,7 +3705,7 @@
         <v>17</v>
       </c>
       <c r="F162" t="n">
-        <v>80.2047168939991</v>
+        <v>83.000485275598</v>
       </c>
     </row>
     <row r="163">
@@ -3725,7 +3725,7 @@
         <v>17</v>
       </c>
       <c r="F163" t="n">
-        <v>15.8514477095767</v>
+        <v>15.8514673337113</v>
       </c>
     </row>
     <row r="164">
@@ -3745,7 +3745,7 @@
         <v>17</v>
       </c>
       <c r="F164" t="n">
-        <v>76.5419917649157</v>
+        <v>79.3858435693276</v>
       </c>
     </row>
     <row r="165">
@@ -3785,7 +3785,7 @@
         <v>17</v>
       </c>
       <c r="F166" t="n">
-        <v>46.0702019717246</v>
+        <v>46.1056089593198</v>
       </c>
     </row>
     <row r="167">
@@ -3805,7 +3805,7 @@
         <v>17</v>
       </c>
       <c r="F167" t="n">
-        <v>42.9977722762566</v>
+        <v>42.5105597989312</v>
       </c>
     </row>
     <row r="168">
@@ -3845,7 +3845,7 @@
         <v>17</v>
       </c>
       <c r="F169" t="n">
-        <v>86.9319765182777</v>
+        <v>86.6736348710034</v>
       </c>
     </row>
     <row r="170">
@@ -3865,7 +3865,7 @@
         <v>17</v>
       </c>
       <c r="F170" t="n">
-        <v>32.6738821664426</v>
+        <v>32.6676757495552</v>
       </c>
     </row>
     <row r="171">
@@ -3885,7 +3885,7 @@
         <v>17</v>
       </c>
       <c r="F171" t="n">
-        <v>65.8122776277128</v>
+        <v>69.8071280847967</v>
       </c>
     </row>
     <row r="172">
@@ -3905,7 +3905,7 @@
         <v>17</v>
       </c>
       <c r="F172" t="n">
-        <v>16.3690628511147</v>
+        <v>16.3690902682396</v>
       </c>
     </row>
     <row r="173">
@@ -3925,7 +3925,7 @@
         <v>17</v>
       </c>
       <c r="F173" t="n">
-        <v>76.498017824167</v>
+        <v>79.3290646057286</v>
       </c>
     </row>
     <row r="174">
@@ -3965,7 +3965,7 @@
         <v>17</v>
       </c>
       <c r="F175" t="n">
-        <v>45.7488118177054</v>
+        <v>45.8220411680692</v>
       </c>
     </row>
     <row r="176">
@@ -3985,7 +3985,7 @@
         <v>17</v>
       </c>
       <c r="F176" t="n">
-        <v>40.5160255964554</v>
+        <v>40.4650616970365</v>
       </c>
     </row>
     <row r="177">
@@ -4025,7 +4025,7 @@
         <v>17</v>
       </c>
       <c r="F178" t="n">
-        <v>87.1566081169235</v>
+        <v>86.8880824923073</v>
       </c>
     </row>
     <row r="179">
@@ -4045,7 +4045,7 @@
         <v>17</v>
       </c>
       <c r="F179" t="n">
-        <v>30.5045443281398</v>
+        <v>30.499038662244</v>
       </c>
     </row>
     <row r="180">
@@ -4065,7 +4065,7 @@
         <v>17</v>
       </c>
       <c r="F180" t="n">
-        <v>57.2389906762099</v>
+        <v>62.1304064082872</v>
       </c>
     </row>
     <row r="181">
@@ -4085,7 +4085,7 @@
         <v>17</v>
       </c>
       <c r="F181" t="n">
-        <v>16.1906188814871</v>
+        <v>16.1906495068389</v>
       </c>
     </row>
     <row r="182">
@@ -4105,7 +4105,7 @@
         <v>17</v>
       </c>
       <c r="F182" t="n">
-        <v>74.0142023095511</v>
+        <v>76.7226997105014</v>
       </c>
     </row>
     <row r="183">
@@ -4145,7 +4145,7 @@
         <v>17</v>
       </c>
       <c r="F184" t="n">
-        <v>45.5089757282013</v>
+        <v>45.4316437096357</v>
       </c>
     </row>
     <row r="185">
@@ -4165,7 +4165,7 @@
         <v>17</v>
       </c>
       <c r="F185" t="n">
-        <v>39.7073956660265</v>
+        <v>39.6240607159566</v>
       </c>
     </row>
     <row r="186">
@@ -4205,7 +4205,7 @@
         <v>17</v>
       </c>
       <c r="F187" t="n">
-        <v>88.6186269861906</v>
+        <v>88.3557412074653</v>
       </c>
     </row>
     <row r="188">
@@ -4225,7 +4225,7 @@
         <v>17</v>
       </c>
       <c r="F188" t="n">
-        <v>33.4497038642376</v>
+        <v>33.5271883324424</v>
       </c>
     </row>
     <row r="189">
@@ -4245,7 +4245,7 @@
         <v>17</v>
       </c>
       <c r="F189" t="n">
-        <v>63.2933123144962</v>
+        <v>68.3819194646483</v>
       </c>
     </row>
     <row r="190">
@@ -4265,7 +4265,7 @@
         <v>17</v>
       </c>
       <c r="F190" t="n">
-        <v>16.0388588796451</v>
+        <v>16.0386392659477</v>
       </c>
     </row>
     <row r="191">
@@ -4285,7 +4285,7 @@
         <v>17</v>
       </c>
       <c r="F191" t="n">
-        <v>78.6322689889827</v>
+        <v>81.2045413072373</v>
       </c>
     </row>
     <row r="192">
@@ -4325,7 +4325,7 @@
         <v>17</v>
       </c>
       <c r="F193" t="n">
-        <v>43.9603983677748</v>
+        <v>43.9656507914317</v>
       </c>
     </row>
     <row r="194">
@@ -4345,7 +4345,7 @@
         <v>17</v>
       </c>
       <c r="F194" t="n">
-        <v>40.883496609662</v>
+        <v>40.8804121117922</v>
       </c>
     </row>
     <row r="195">
@@ -4385,7 +4385,7 @@
         <v>17</v>
       </c>
       <c r="F196" t="n">
-        <v>91.2466778138303</v>
+        <v>90.9740496816662</v>
       </c>
     </row>
     <row r="197">
@@ -4405,7 +4405,7 @@
         <v>17</v>
       </c>
       <c r="F197" t="n">
-        <v>34.2582125805294</v>
+        <v>34.3549904683359</v>
       </c>
     </row>
     <row r="198">
@@ -4425,7 +4425,7 @@
         <v>17</v>
       </c>
       <c r="F198" t="n">
-        <v>30.0588965145894</v>
+        <v>35.6162535214214</v>
       </c>
     </row>
     <row r="199">
@@ -4445,7 +4445,7 @@
         <v>17</v>
       </c>
       <c r="F199" t="n">
-        <v>15.5791019416024</v>
+        <v>15.5782990956764</v>
       </c>
     </row>
     <row r="200">
@@ -4465,7 +4465,7 @@
         <v>17</v>
       </c>
       <c r="F200" t="n">
-        <v>79.9350900741447</v>
+        <v>82.582180119864</v>
       </c>
     </row>
     <row r="201">
@@ -4505,7 +4505,7 @@
         <v>17</v>
       </c>
       <c r="F202" t="n">
-        <v>44.686820939599</v>
+        <v>44.9590225641229</v>
       </c>
     </row>
     <row r="203">
@@ -4525,7 +4525,7 @@
         <v>17</v>
       </c>
       <c r="F203" t="n">
-        <v>42.8752222693527</v>
+        <v>41.6326704737352</v>
       </c>
     </row>
     <row r="204">
@@ -4565,7 +4565,7 @@
         <v>17</v>
       </c>
       <c r="F205" t="n">
-        <v>91.7870794453586</v>
+        <v>91.4836468663609</v>
       </c>
     </row>
     <row r="206">
@@ -4585,7 +4585,7 @@
         <v>17</v>
       </c>
       <c r="F206" t="n">
-        <v>31.8954244748205</v>
+        <v>32.0004462010579</v>
       </c>
     </row>
     <row r="207">
@@ -4605,7 +4605,7 @@
         <v>17</v>
       </c>
       <c r="F207" t="n">
-        <v>4.05657022543301</v>
+        <v>8.54141426012353</v>
       </c>
     </row>
     <row r="208">
@@ -4625,7 +4625,7 @@
         <v>17</v>
       </c>
       <c r="F208" t="n">
-        <v>14.2478524023867</v>
+        <v>14.2451911026781</v>
       </c>
     </row>
     <row r="209">
@@ -4645,7 +4645,7 @@
         <v>17</v>
       </c>
       <c r="F209" t="n">
-        <v>80.3993595485045</v>
+        <v>83.0039128764941</v>
       </c>
     </row>
     <row r="210">
@@ -4685,7 +4685,7 @@
         <v>17</v>
       </c>
       <c r="F211" t="n">
-        <v>45.4259865819761</v>
+        <v>45.9290912922027</v>
       </c>
     </row>
     <row r="212">
@@ -4705,7 +4705,7 @@
         <v>17</v>
       </c>
       <c r="F212" t="n">
-        <v>45.9692316294918</v>
+        <v>44.7222783066579</v>
       </c>
     </row>
     <row r="213">
@@ -4745,7 +4745,7 @@
         <v>17</v>
       </c>
       <c r="F214" t="n">
-        <v>93.134217004156</v>
+        <v>92.8076783269416</v>
       </c>
     </row>
     <row r="215">
@@ -4765,7 +4765,7 @@
         <v>17</v>
       </c>
       <c r="F215" t="n">
-        <v>29.6852702839986</v>
+        <v>29.7803336010122</v>
       </c>
     </row>
     <row r="216">
@@ -4785,7 +4785,7 @@
         <v>17</v>
       </c>
       <c r="F216" t="n">
-        <v>14.5802926973136</v>
+        <v>18.8692223832808</v>
       </c>
     </row>
     <row r="217">
@@ -4805,7 +4805,7 @@
         <v>17</v>
       </c>
       <c r="F217" t="n">
-        <v>13.2739563719311</v>
+        <v>13.270246534641</v>
       </c>
     </row>
     <row r="218">
@@ -4825,7 +4825,7 @@
         <v>17</v>
       </c>
       <c r="F218" t="n">
-        <v>80.7337393790756</v>
+        <v>83.2372002658429</v>
       </c>
     </row>
     <row r="219">
@@ -4865,7 +4865,7 @@
         <v>17</v>
       </c>
       <c r="F220" t="n">
-        <v>43.3862485006977</v>
+        <v>43.7125774440906</v>
       </c>
     </row>
     <row r="221">
@@ -4885,7 +4885,7 @@
         <v>17</v>
       </c>
       <c r="F221" t="n">
-        <v>46.1933284566624</v>
+        <v>46.0839374636218</v>
       </c>
     </row>
     <row r="222">
@@ -4925,7 +4925,7 @@
         <v>17</v>
       </c>
       <c r="F223" t="n">
-        <v>93.0900418467082</v>
+        <v>92.7539863251902</v>
       </c>
     </row>
     <row r="224">
@@ -4945,7 +4945,7 @@
         <v>17</v>
       </c>
       <c r="F224" t="n">
-        <v>29.6124138346854</v>
+        <v>29.7096078483802</v>
       </c>
     </row>
     <row r="225">
@@ -4965,7 +4965,7 @@
         <v>17</v>
       </c>
       <c r="F225" t="n">
-        <v>4.22722377127197</v>
+        <v>8.19171032719608</v>
       </c>
     </row>
     <row r="226">
@@ -4985,7 +4985,7 @@
         <v>17</v>
       </c>
       <c r="F226" t="n">
-        <v>13.2234982568856</v>
+        <v>13.2184263101797</v>
       </c>
     </row>
     <row r="227">
@@ -5005,7 +5005,7 @@
         <v>17</v>
       </c>
       <c r="F227" t="n">
-        <v>77.6678984351567</v>
+        <v>80.0906266687048</v>
       </c>
     </row>
     <row r="228">
@@ -5045,7 +5045,7 @@
         <v>17</v>
       </c>
       <c r="F229" t="n">
-        <v>48.5626636220582</v>
+        <v>49.0383596680144</v>
       </c>
     </row>
     <row r="230">
@@ -5065,7 +5065,7 @@
         <v>17</v>
       </c>
       <c r="F230" t="n">
-        <v>42.9857860246118</v>
+        <v>42.1746108816804</v>
       </c>
     </row>
     <row r="231">
@@ -5105,7 +5105,7 @@
         <v>17</v>
       </c>
       <c r="F232" t="n">
-        <v>95.2324763842548</v>
+        <v>94.8743221800037</v>
       </c>
     </row>
     <row r="233">
@@ -5125,7 +5125,7 @@
         <v>17</v>
       </c>
       <c r="F233" t="n">
-        <v>30.477795357648</v>
+        <v>30.5127648747758</v>
       </c>
     </row>
     <row r="234">
@@ -5145,7 +5145,7 @@
         <v>17</v>
       </c>
       <c r="F234" t="n">
-        <v>-9.65132994192146</v>
+        <v>-4.97087427531074</v>
       </c>
     </row>
     <row r="235">
@@ -5165,7 +5165,7 @@
         <v>17</v>
       </c>
       <c r="F235" t="n">
-        <v>12.7071790390947</v>
+        <v>12.7081901633975</v>
       </c>
     </row>
     <row r="236">
@@ -5185,7 +5185,7 @@
         <v>17</v>
       </c>
       <c r="F236" t="n">
-        <v>76.6741800311186</v>
+        <v>78.6362915276946</v>
       </c>
     </row>
     <row r="237">
@@ -5225,7 +5225,7 @@
         <v>17</v>
       </c>
       <c r="F238" t="n">
-        <v>49.8478271927985</v>
+        <v>50.5562564775101</v>
       </c>
     </row>
     <row r="239">
@@ -5245,7 +5245,7 @@
         <v>17</v>
       </c>
       <c r="F239" t="n">
-        <v>41.7163459065678</v>
+        <v>41.0456092610887</v>
       </c>
     </row>
     <row r="240">
@@ -5285,7 +5285,7 @@
         <v>17</v>
       </c>
       <c r="F241" t="n">
-        <v>96.2258692469946</v>
+        <v>95.8583744561569</v>
       </c>
     </row>
     <row r="242">
@@ -5305,7 +5305,7 @@
         <v>17</v>
       </c>
       <c r="F242" t="n">
-        <v>30.5624063537553</v>
+        <v>30.6027199460866</v>
       </c>
     </row>
     <row r="243">
@@ -5325,7 +5325,7 @@
         <v>17</v>
       </c>
       <c r="F243" t="n">
-        <v>-60.523803229407</v>
+        <v>-56.4290738540251</v>
       </c>
     </row>
     <row r="244">
@@ -5345,7 +5345,7 @@
         <v>17</v>
       </c>
       <c r="F244" t="n">
-        <v>13.0664229376103</v>
+        <v>13.0691332763837</v>
       </c>
     </row>
     <row r="245">
@@ -5365,7 +5365,7 @@
         <v>17</v>
       </c>
       <c r="F245" t="n">
-        <v>80.1518799231551</v>
+        <v>83.2194297110098</v>
       </c>
     </row>
     <row r="246">
@@ -5405,7 +5405,7 @@
         <v>17</v>
       </c>
       <c r="F247" t="n">
-        <v>51.8281059662598</v>
+        <v>53.8265679098579</v>
       </c>
     </row>
     <row r="248">
@@ -5425,7 +5425,7 @@
         <v>17</v>
       </c>
       <c r="F248" t="n">
-        <v>41.0426458477009</v>
+        <v>40.6527953118455</v>
       </c>
     </row>
     <row r="249">
@@ -5465,7 +5465,7 @@
         <v>17</v>
       </c>
       <c r="F250" t="n">
-        <v>97.8494385567753</v>
+        <v>97.4623669610249</v>
       </c>
     </row>
     <row r="251">
@@ -5485,7 +5485,7 @@
         <v>17</v>
       </c>
       <c r="F251" t="n">
-        <v>31.1666004814994</v>
+        <v>31.1902673023574</v>
       </c>
     </row>
     <row r="252">
@@ -5505,7 +5505,7 @@
         <v>17</v>
       </c>
       <c r="F252" t="n">
-        <v>-29.389160456018</v>
+        <v>-25.8893819058401</v>
       </c>
     </row>
     <row r="253">
@@ -5525,7 +5525,7 @@
         <v>17</v>
       </c>
       <c r="F253" t="n">
-        <v>13.3195485258893</v>
+        <v>13.3167399711629</v>
       </c>
     </row>
     <row r="254">
@@ -5545,7 +5545,7 @@
         <v>17</v>
       </c>
       <c r="F254" t="n">
-        <v>79.2298899178008</v>
+        <v>82.2367286470403</v>
       </c>
     </row>
     <row r="255">
@@ -5585,7 +5585,7 @@
         <v>17</v>
       </c>
       <c r="F256" t="n">
-        <v>54.8788817527515</v>
+        <v>56.8958174875271</v>
       </c>
     </row>
     <row r="257">
@@ -5605,7 +5605,7 @@
         <v>17</v>
       </c>
       <c r="F257" t="n">
-        <v>42.1170686220431</v>
+        <v>41.7449837043462</v>
       </c>
     </row>
     <row r="258">
@@ -5625,7 +5625,7 @@
         <v>17</v>
       </c>
       <c r="F258" t="n">
-        <v>214.642068382384</v>
+        <v>214.312247425831</v>
       </c>
     </row>
     <row r="259">
@@ -5645,7 +5645,7 @@
         <v>17</v>
       </c>
       <c r="F259" t="n">
-        <v>100.145650790074</v>
+        <v>99.747870986566</v>
       </c>
     </row>
     <row r="260">
@@ -5665,7 +5665,7 @@
         <v>17</v>
       </c>
       <c r="F260" t="n">
-        <v>31.8240534560426</v>
+        <v>31.7507403951105</v>
       </c>
     </row>
     <row r="261">
@@ -5685,7 +5685,7 @@
         <v>17</v>
       </c>
       <c r="F261" t="n">
-        <v>-58.3647138141145</v>
+        <v>-55.5516970843083</v>
       </c>
     </row>
     <row r="262">
@@ -5705,7 +5705,7 @@
         <v>17</v>
       </c>
       <c r="F262" t="n">
-        <v>12.8119836056593</v>
+        <v>12.8045907316869</v>
       </c>
     </row>
     <row r="263">
@@ -5725,7 +5725,7 @@
         <v>17</v>
       </c>
       <c r="F263" t="n">
-        <v>73.746838941729</v>
+        <v>75.9512439360514</v>
       </c>
     </row>
     <row r="264">
@@ -5745,7 +5745,7 @@
         <v>17</v>
       </c>
       <c r="F264" t="n">
-        <v>22.7537259361658</v>
+        <v>22.7537108164211</v>
       </c>
     </row>
     <row r="265">
@@ -5765,7 +5765,7 @@
         <v>17</v>
       </c>
       <c r="F265" t="n">
-        <v>56.2181430635678</v>
+        <v>58.2439289535068</v>
       </c>
     </row>
     <row r="266">
@@ -5785,7 +5785,7 @@
         <v>17</v>
       </c>
       <c r="F266" t="n">
-        <v>41.7927303303318</v>
+        <v>41.3680622217884</v>
       </c>
     </row>
     <row r="267">
@@ -5805,7 +5805,7 @@
         <v>17</v>
       </c>
       <c r="F267" t="n">
-        <v>213.713883585918</v>
+        <v>213.40743857973</v>
       </c>
     </row>
     <row r="268">
@@ -5825,7 +5825,7 @@
         <v>17</v>
       </c>
       <c r="F268" t="n">
-        <v>100.204320129823</v>
+        <v>99.8060016861027</v>
       </c>
     </row>
     <row r="269">
@@ -5845,7 +5845,7 @@
         <v>17</v>
       </c>
       <c r="F269" t="n">
-        <v>32.5373063236608</v>
+        <v>32.4959988113268</v>
       </c>
     </row>
     <row r="270">
@@ -5865,7 +5865,7 @@
         <v>17</v>
       </c>
       <c r="F270" t="n">
-        <v>-63.5032352738994</v>
+        <v>-61.0274037794015</v>
       </c>
     </row>
     <row r="271">
@@ -5885,7 +5885,7 @@
         <v>17</v>
       </c>
       <c r="F271" t="n">
-        <v>13.2420634683909</v>
+        <v>13.2555746519511</v>
       </c>
     </row>
     <row r="272">
@@ -5905,7 +5905,7 @@
         <v>17</v>
       </c>
       <c r="F272" t="n">
-        <v>71.5748608505933</v>
+        <v>73.7687659935404</v>
       </c>
     </row>
     <row r="273">
@@ -5925,7 +5925,7 @@
         <v>17</v>
       </c>
       <c r="F273" t="n">
-        <v>22.324343149256</v>
+        <v>22.3242659232058</v>
       </c>
     </row>
     <row r="274">
@@ -5945,7 +5945,7 @@
         <v>17</v>
       </c>
       <c r="F274" t="n">
-        <v>53.874724420816</v>
+        <v>55.2710976584318</v>
       </c>
     </row>
     <row r="275">
@@ -5965,7 +5965,7 @@
         <v>17</v>
       </c>
       <c r="F275" t="n">
-        <v>41.7255439466621</v>
+        <v>41.3610548374177</v>
       </c>
     </row>
     <row r="276">
@@ -5985,7 +5985,7 @@
         <v>17</v>
       </c>
       <c r="F276" t="n">
-        <v>207.669100452653</v>
+        <v>207.586225507677</v>
       </c>
     </row>
     <row r="277">
@@ -6005,7 +6005,7 @@
         <v>17</v>
       </c>
       <c r="F277" t="n">
-        <v>93.181059007957</v>
+        <v>92.722305583115</v>
       </c>
     </row>
     <row r="278">
@@ -6025,7 +6025,7 @@
         <v>17</v>
       </c>
       <c r="F278" t="n">
-        <v>31.89176023954</v>
+        <v>31.8564187613374</v>
       </c>
     </row>
     <row r="279">
@@ -6045,7 +6045,7 @@
         <v>17</v>
       </c>
       <c r="F279" t="n">
-        <v>-61.2316637447385</v>
+        <v>-60.6375417356189</v>
       </c>
     </row>
     <row r="280">
@@ -6065,7 +6065,7 @@
         <v>17</v>
       </c>
       <c r="F280" t="n">
-        <v>13.5345638859946</v>
+        <v>13.4577886248693</v>
       </c>
     </row>
     <row r="281">
@@ -6085,7 +6085,7 @@
         <v>17</v>
       </c>
       <c r="F281" t="n">
-        <v>76.6171284189815</v>
+        <v>78.7594472287094</v>
       </c>
     </row>
     <row r="282">
@@ -6105,7 +6105,7 @@
         <v>17</v>
       </c>
       <c r="F282" t="n">
-        <v>24.5649373135471</v>
+        <v>24.5648195594227</v>
       </c>
     </row>
     <row r="283">
@@ -6125,7 +6125,7 @@
         <v>17</v>
       </c>
       <c r="F283" t="n">
-        <v>48.6351286672324</v>
+        <v>49.6638404845557</v>
       </c>
     </row>
     <row r="284">
@@ -6145,7 +6145,7 @@
         <v>17</v>
       </c>
       <c r="F284" t="n">
-        <v>43.1794862354149</v>
+        <v>42.9278825697726</v>
       </c>
     </row>
     <row r="285">
@@ -6165,7 +6165,7 @@
         <v>17</v>
       </c>
       <c r="F285" t="n">
-        <v>197.853958928358</v>
+        <v>197.686893332183</v>
       </c>
     </row>
     <row r="286">
@@ -6185,7 +6185,7 @@
         <v>17</v>
       </c>
       <c r="F286" t="n">
-        <v>90.0972385685845</v>
+        <v>89.6194850814434</v>
       </c>
     </row>
     <row r="287">
@@ -6205,7 +6205,7 @@
         <v>17</v>
       </c>
       <c r="F287" t="n">
-        <v>32.8817079067621</v>
+        <v>32.7542184283265</v>
       </c>
     </row>
     <row r="288">
@@ -6225,7 +6225,7 @@
         <v>17</v>
       </c>
       <c r="F288" t="n">
-        <v>-88.5310762145983</v>
+        <v>-89.6418447520273</v>
       </c>
     </row>
     <row r="289">
@@ -6245,7 +6245,7 @@
         <v>17</v>
       </c>
       <c r="F289" t="n">
-        <v>13.4465477238066</v>
+        <v>13.5899248441545</v>
       </c>
     </row>
     <row r="290">
@@ -6265,7 +6265,7 @@
         <v>17</v>
       </c>
       <c r="F290" t="n">
-        <v>77.4508504438935</v>
+        <v>79.6336742933083</v>
       </c>
     </row>
     <row r="291">
@@ -6285,7 +6285,7 @@
         <v>17</v>
       </c>
       <c r="F291" t="n">
-        <v>24.5104206163104</v>
+        <v>24.5103620250561</v>
       </c>
     </row>
     <row r="292">
@@ -6305,7 +6305,7 @@
         <v>17</v>
       </c>
       <c r="F292" t="n">
-        <v>48.0760070525477</v>
+        <v>49.1698799855873</v>
       </c>
     </row>
     <row r="293">
@@ -6325,7 +6325,7 @@
         <v>17</v>
       </c>
       <c r="F293" t="n">
-        <v>43.1266652811932</v>
+        <v>43.2085919737826</v>
       </c>
     </row>
     <row r="294">
@@ -6345,7 +6345,7 @@
         <v>17</v>
       </c>
       <c r="F294" t="n">
-        <v>191.235921368277</v>
+        <v>190.657209127138</v>
       </c>
     </row>
     <row r="295">
@@ -6365,7 +6365,7 @@
         <v>17</v>
       </c>
       <c r="F295" t="n">
-        <v>89.7631568172651</v>
+        <v>89.5175576664772</v>
       </c>
     </row>
     <row r="296">
@@ -6385,7 +6385,7 @@
         <v>17</v>
       </c>
       <c r="F296" t="n">
-        <v>32.9670978411295</v>
+        <v>32.8852495888254</v>
       </c>
     </row>
     <row r="297">
@@ -6405,7 +6405,7 @@
         <v>17</v>
       </c>
       <c r="F297" t="n">
-        <v>-88.3742226546248</v>
+        <v>-83.001910558045</v>
       </c>
     </row>
     <row r="298">
@@ -6425,7 +6425,187 @@
         <v>17</v>
       </c>
       <c r="F298" t="n">
-        <v>13.8649382853541</v>
+        <v>14.0402082492185</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>14</v>
+      </c>
+      <c r="B299" t="s">
+        <v>15</v>
+      </c>
+      <c r="C299" t="s">
+        <v>16</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E299" t="s">
+        <v>17</v>
+      </c>
+      <c r="F299" t="n">
+        <v>82.3884195186941</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>14</v>
+      </c>
+      <c r="B300" t="s">
+        <v>15</v>
+      </c>
+      <c r="C300" t="s">
+        <v>18</v>
+      </c>
+      <c r="D300" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E300" t="s">
+        <v>17</v>
+      </c>
+      <c r="F300" t="n">
+        <v>23.575512526152</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>14</v>
+      </c>
+      <c r="B301" t="s">
+        <v>15</v>
+      </c>
+      <c r="C301" t="s">
+        <v>19</v>
+      </c>
+      <c r="D301" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E301" t="s">
+        <v>17</v>
+      </c>
+      <c r="F301" t="n">
+        <v>48.9080766552458</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>14</v>
+      </c>
+      <c r="B302" t="s">
+        <v>15</v>
+      </c>
+      <c r="C302" t="s">
+        <v>20</v>
+      </c>
+      <c r="D302" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E302" t="s">
+        <v>17</v>
+      </c>
+      <c r="F302" t="n">
+        <v>42.0420532348829</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>14</v>
+      </c>
+      <c r="B303" t="s">
+        <v>15</v>
+      </c>
+      <c r="C303" t="s">
+        <v>21</v>
+      </c>
+      <c r="D303" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E303" t="s">
+        <v>17</v>
+      </c>
+      <c r="F303" t="n">
+        <v>186.846571016228</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>14</v>
+      </c>
+      <c r="B304" t="s">
+        <v>15</v>
+      </c>
+      <c r="C304" t="s">
+        <v>22</v>
+      </c>
+      <c r="D304" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E304" t="s">
+        <v>17</v>
+      </c>
+      <c r="F304" t="n">
+        <v>96.6107319649388</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>14</v>
+      </c>
+      <c r="B305" t="s">
+        <v>15</v>
+      </c>
+      <c r="C305" t="s">
+        <v>23</v>
+      </c>
+      <c r="D305" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E305" t="s">
+        <v>17</v>
+      </c>
+      <c r="F305" t="n">
+        <v>32.9865564060558</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>14</v>
+      </c>
+      <c r="B306" t="s">
+        <v>15</v>
+      </c>
+      <c r="C306" t="s">
+        <v>24</v>
+      </c>
+      <c r="D306" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E306" t="s">
+        <v>17</v>
+      </c>
+      <c r="F306" t="n">
+        <v>-73.7014090389644</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>14</v>
+      </c>
+      <c r="B307" t="s">
+        <v>15</v>
+      </c>
+      <c r="C307" t="s">
+        <v>25</v>
+      </c>
+      <c r="D307" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E307" t="s">
+        <v>17</v>
+      </c>
+      <c r="F307" t="n">
+        <v>13.7923989721071</v>
       </c>
     </row>
   </sheetData>
